--- a/SpotlessStockX/AppResources/BOL Template.xlsx
+++ b/SpotlessStockX/AppResources/BOL Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\OneDrive\Documents\GitHub\Spotless-Stock-X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99837f602e081c0b/Documents/GitHub/Spotless-Stock-X/SpotlessStockX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA727845-7A03-4D57-90A6-872031A175D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FA727845-7A03-4D57-90A6-872031A175D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{116E2015-1096-4FD6-8A1A-B3EF5758A3CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E203C22A-4ECD-4B52-B005-BDBDF9689310}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E203C22A-4ECD-4B52-B005-BDBDF9689310}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Sheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -715,6 +715,222 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -873,10 +1089,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -938,219 +1150,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1471,1050 +1471,1087 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:J5"/>
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="51" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="51" t="s">
+      <c r="I4" s="115"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="116"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="113"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="104"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="120"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="107"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="122"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="110"/>
+      <c r="R8" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="119"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="10" t="s">
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="35"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="91"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="121"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="92"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="121"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="95"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="121"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="128"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="98"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="123"/>
+      <c r="X12" s="124"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="128"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="98"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="128"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="128"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="98"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="128"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="98"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="101"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="72" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="127"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="71"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="133"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="101"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="104"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="87" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="91" t="s">
+      <c r="D22" s="61"/>
+      <c r="E22" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="79" t="s">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="80"/>
+      <c r="N22" s="53"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="82"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="55"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="82"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="55"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="134"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="138"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="139" t="s">
+      <c r="D40" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="140"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="114" t="s">
+      <c r="A41" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="133" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="133"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="117"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="120" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="122"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="26"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="129" t="s">
+      <c r="A43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="129"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="125"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="130"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="125"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
     </row>
     <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="130"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="127"/>
-      <c r="N45" s="128"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="32"/>
     </row>
     <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="130"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="112" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="112"/>
-      <c r="M46" s="112"/>
-      <c r="N46" s="112"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="130"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="120" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="121"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="121"/>
-      <c r="L47" s="121"/>
-      <c r="M47" s="121"/>
-      <c r="N47" s="122"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="26"/>
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="130"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="125"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="130"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="127"/>
-      <c r="K49" s="127"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="127"/>
-      <c r="N49" s="128"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="130"/>
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="113" t="s">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="113"/>
-      <c r="N50" s="113"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="130"/>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="120" t="s">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I51" s="121"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="121"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="121"/>
-      <c r="N51" s="122"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="130"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="125"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="130"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="127"/>
-      <c r="M53" s="127"/>
-      <c r="N53" s="128"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="32"/>
     </row>
     <row r="54" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="130"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="113" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="113"/>
-      <c r="N54" s="113"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="130"/>
-      <c r="B55" s="130"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="120" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="121"/>
-      <c r="J55" s="121"/>
-      <c r="K55" s="121"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="122"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="130"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="125"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="29"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="130"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
-      <c r="N57" s="128"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="32"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="130"/>
-      <c r="B58" s="130"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
       <c r="H58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="131" t="s">
+      <c r="I58" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="132"/>
-      <c r="K58" s="131" t="s">
+      <c r="J58" s="36"/>
+      <c r="K58" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L58" s="131"/>
-      <c r="M58" s="131" t="s">
+      <c r="L58" s="35"/>
+      <c r="M58" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="131"/>
+      <c r="N58" s="35"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="130"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
       <c r="H59" s="7"/>
       <c r="I59" s="8"/>
       <c r="J59" s="9"/>
@@ -2534,21 +2571,74 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="104">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:L35"/>
+  <mergeCells count="105">
+    <mergeCell ref="R8:X12"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="E9:J10"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="K9:N10"/>
+    <mergeCell ref="H11:N17"/>
+    <mergeCell ref="H6:N8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A4:G8"/>
+    <mergeCell ref="A11:G13"/>
+    <mergeCell ref="A14:G15"/>
+    <mergeCell ref="A16:G17"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="K18:N19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M22:N24"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:L24"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H20:N21"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="H46:N46"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="A41:G42"/>
+    <mergeCell ref="H42:N45"/>
+    <mergeCell ref="H51:N53"/>
+    <mergeCell ref="A43:G59"/>
+    <mergeCell ref="H55:N57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="H47:N49"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
@@ -2573,72 +2663,20 @@
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H46:N46"/>
-    <mergeCell ref="H50:N50"/>
-    <mergeCell ref="H54:N54"/>
-    <mergeCell ref="A41:G42"/>
-    <mergeCell ref="H42:N45"/>
-    <mergeCell ref="H51:N53"/>
-    <mergeCell ref="A43:G59"/>
-    <mergeCell ref="H55:N57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="H47:N49"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H20:N21"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M22:N24"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:L24"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="E9:J10"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="K9:N10"/>
-    <mergeCell ref="H11:N17"/>
-    <mergeCell ref="H6:N8"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A4:G8"/>
-    <mergeCell ref="A11:G13"/>
-    <mergeCell ref="A14:G15"/>
-    <mergeCell ref="A16:G17"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="K18:N19"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:L35"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
